--- a/Udemy/Rahul/Projects/ExcelDriven/ExcelDriven.xlsx
+++ b/Udemy/Rahul/Projects/ExcelDriven/ExcelDriven.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Testcases</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>AddProfile1</t>
-  </si>
-  <si>
-    <t>AddProfile2</t>
   </si>
   <si>
     <t>AddProfile3</t>
@@ -406,7 +403,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,11 +461,11 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,13 +473,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
